--- a/张振东/规划/3.10雪崩测试用例.xlsx
+++ b/张振东/规划/3.10雪崩测试用例.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DongCheng\Documents\Tencent Files\576113897\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project-manager\张振东\规划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA30376E-563F-4779-97D5-B32178D1DF2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="新闻、文章、视频模块" sheetId="1" r:id="rId1"/>
     <sheet name="电台模块" sheetId="2" r:id="rId2"/>
     <sheet name="个人中心模块" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -96,13 +95,7 @@
     <t>个人中心模块</t>
   </si>
   <si>
-    <t>我的咨询：点击取消预约提示</t>
-  </si>
-  <si>
     <t>已登录</t>
-  </si>
-  <si>
-    <t>我的咨询：取消预约的预约在已取消列表中显示</t>
   </si>
   <si>
     <t>个人设置：修改基本信息，不选择性别是否报错</t>
@@ -410,11 +403,19 @@
     <t>开始在暂停点播放</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>我的视频：点击取消预约提示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的雪崩：取消预约的预约在已取消列表中显示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -834,7 +835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -880,56 +881,56 @@
     </row>
     <row r="2" spans="1:11" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -943,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -989,58 +990,58 @@
     </row>
     <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1052,7 +1053,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -1068,11 +1069,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1117,16 +1118,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -1134,16 +1135,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
@@ -1151,16 +1152,16 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="187.2" x14ac:dyDescent="0.25">
@@ -1168,16 +1169,16 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="187.2" x14ac:dyDescent="0.25">
@@ -1185,16 +1186,16 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="144" x14ac:dyDescent="0.25">
@@ -1202,16 +1203,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="144" x14ac:dyDescent="0.25">
@@ -1219,16 +1220,16 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="158.4" x14ac:dyDescent="0.25">
@@ -1236,16 +1237,16 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="187.2" x14ac:dyDescent="0.25">
@@ -1253,16 +1254,16 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
@@ -1270,16 +1271,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
@@ -1287,16 +1288,16 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
@@ -1304,16 +1305,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="100.8" x14ac:dyDescent="0.25">
@@ -1321,16 +1322,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="100.8" x14ac:dyDescent="0.25">
@@ -1338,16 +1339,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
@@ -1355,16 +1356,16 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.25">
@@ -1372,16 +1373,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1389,7 +1390,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
